--- a/biology/Histoire de la zoologie et de la botanique/August_Neilreich/August_Neilreich.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/August_Neilreich/August_Neilreich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">August Neilreich (12 décembre 1803, Vienne - 1er juin 1871), est un avocat autrichien et un botaniste.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie le droit à l'Université de Vienne pour atteindre la position de  Oberlandesgericht Rath . À l'âge de 53 ans, il est contraint à la mise à la retraite anticipée de sa profession juridique, pour des raisons de santé.
 Jeune, il est inspiré par le travail botanique de Ludwig Ritter von Köchel (1800-1877). Bien qu'il soit largement connu pour ses études sur la flore indigène de Vienne et de la Basse-Autriche, il a publié des travaux sur les plantes trouvées dans tout l'Empire autrichien.
-Le genre végétal  Neilreichia  a été nommé en son honneur par Eduard Fenzl (1808 à 1879). Son nom est également associé à l'espèce 'Asperula neilreichii' (Est Alps-Meier)[1].
+Le genre végétal  Neilreichia  a été nommé en son honneur par Eduard Fenzl (1808 à 1879). Son nom est également associé à l'espèce 'Asperula neilreichii' (Est Alps-Meier).
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Flora von Wien , etc. 1846 - Flore de Vienne.
  Flora von Nieder-Oesterreich  1859 - Flore de Basse-Autriche.
  Nachträge zur Flora von Nieder-Oesterreich  1866 - Supplément à la flore de Basse-Autriche.
  Aufzählung der in Ungarn und Slavonien bisher beobachteten Gefässpflanzen  1866 - Enumération des études précédentes plantes vasculaires de Hongrie et de Slavonie.
- Die vegetationsverhältnisse von Croatien  1868 - Végétation de Croatie[2].</t>
+ Die vegetationsverhältnisse von Croatien  1868 - Végétation de Croatie.</t>
         </is>
       </c>
     </row>
